--- a/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
+++ b/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>别名</t>
   </si>
@@ -242,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -270,6 +270,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -278,90 +286,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +353,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -400,12 +369,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -422,31 +422,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,25 +542,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,49 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,67 +584,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,11 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,47 +657,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,7 +679,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -728,6 +713,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,130 +751,130 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
+++ b/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
@@ -216,7 +216,7 @@
     <t>请选择停车场</t>
   </si>
   <si>
-    <t>//span[contains(text(), "请选择停车场")]</t>
+    <t>//form[@class='form-inline']/span[1]//i</t>
   </si>
   <si>
     <t>选择停车场列表</t>
@@ -243,9 +243,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -270,62 +270,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,12 +295,72 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -353,18 +369,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,15 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -422,31 +422,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,13 +560,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,133 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +631,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -647,16 +656,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,20 +685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +720,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,145 +736,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
+++ b/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
@@ -87,13 +87,13 @@
     <t>编辑</t>
   </si>
   <si>
-    <t>//*[@id="compaignCouponTable"]//div[@class='el-table__fixed-right']//i[@class='icon-edit']</t>
+    <t>//div[@class='el-table__fixed-right']//i[@class='icon-edit']</t>
   </si>
   <si>
     <t>删除</t>
   </si>
   <si>
-    <t>//*[@id="compaignCouponTable"]//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
+    <t>//div[@class='el-table__fixed-right']//i[@class='icon-delete']</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -123,7 +123,7 @@
     <t>停车场列表</t>
   </si>
   <si>
-    <t>//*[@id='app']//div[@class='modal-container']//label[contains(text(),'停车场列表')]/../following-sibling::*[1]</t>
+    <t>//*[@id='app']//div[@class='modal-container']//label[text()='适用车场']/following-sibling::*[1]//span</t>
   </si>
   <si>
     <t>选择停车场</t>
@@ -168,73 +168,73 @@
     <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'有效日期')]/../following-sibling::div[1]</t>
   </si>
   <si>
+    <t>最高优惠金额</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'最高优惠金额')]/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>操作成功-提示</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-wrapper']</t>
+  </si>
+  <si>
+    <t>确认-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+  </si>
+  <si>
+    <t>保存-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//span[contains(text(),'保存')]</t>
+  </si>
+  <si>
+    <t>确认-二级提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
+  </si>
+  <si>
+    <t>支付优惠列表</t>
+  </si>
+  <si>
+    <t>请选择停车场</t>
+  </si>
+  <si>
+    <t>//form[@class='form-inline']/span[1]//i</t>
+  </si>
+  <si>
+    <t>选择停车场列表</t>
+  </si>
+  <si>
+    <t>//ul[@id='tableTree']</t>
+  </si>
+  <si>
+    <t>多项筛选</t>
+  </si>
+  <si>
+    <t>//span[text()='多项筛选']</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
+  </si>
+  <si>
     <t>车费条件1</t>
   </si>
   <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'停车费条件')]/following-sibling::div[1]/div[1]//input</t>
+    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'使用条件')]/following-sibling::div[1]/div[1]/div[1]/div[1]//input</t>
   </si>
   <si>
     <t>车费条件2</t>
   </si>
   <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'停车费条件')]/following-sibling::div[1]/div[3]//input</t>
-  </si>
-  <si>
-    <t>最高优惠金额</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'最高优惠金额')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>操作成功-提示</t>
-  </si>
-  <si>
-    <t>//div[@class='toast-wrapper']</t>
-  </si>
-  <si>
-    <t>确定-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//button[contains(text(),'确定')]</t>
-  </si>
-  <si>
-    <t>确认-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
-  </si>
-  <si>
-    <t>确认-二级提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
-  </si>
-  <si>
-    <t>支付优惠列表</t>
-  </si>
-  <si>
-    <t>请选择停车场</t>
-  </si>
-  <si>
-    <t>//form[@class='form-inline']/span[1]//i</t>
-  </si>
-  <si>
-    <t>选择停车场列表</t>
-  </si>
-  <si>
-    <t>//ul[@id='tableTree']</t>
-  </si>
-  <si>
-    <t>多项筛选</t>
-  </si>
-  <si>
-    <t>//span[text()='多项筛选']</t>
-  </si>
-  <si>
-    <t>导出</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
+    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'使用条件')]/following-sibling::div[1]/div[1]/div[1]/div[3]//input</t>
   </si>
 </sst>
 </file>
@@ -244,8 +244,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -264,6 +264,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -271,7 +285,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,106 +361,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -393,15 +368,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,31 +422,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +542,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,133 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,11 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +657,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,17 +709,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,24 +728,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,133 +748,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,15 +1247,15 @@
   <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="106" customWidth="1"/>
+    <col min="3" max="3" width="127.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:3">
@@ -1533,25 +1533,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" ht="27" customHeight="1" spans="1:3">
-      <c r="A26" s="3" t="s">
+    <row r="26" ht="24" customHeight="1" spans="1:3">
+      <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" ht="27" customHeight="1" spans="1:3">
-      <c r="A27" s="3" t="s">
+    <row r="27" ht="24" customHeight="1" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1566,48 +1566,48 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="1:3">
+    <row r="29" ht="21" customHeight="1" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" ht="21" customHeight="1" spans="1:3">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1" spans="1:3">
       <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1" spans="1:3">
@@ -1621,18 +1621,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="1:3">
+    <row r="34" ht="23" customHeight="1" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="1:3">
+    <row r="35" ht="23" customHeight="1" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1643,14 +1643,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" ht="24" customHeight="1" spans="1:3">
+    <row r="36" ht="23" customHeight="1" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
+++ b/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
@@ -183,7 +183,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认')or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>保存-提示</t>
@@ -264,12 +264,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -278,59 +310,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,19 +348,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,40 +393,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,25 +422,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,49 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,103 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,21 +632,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -657,24 +642,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +657,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,17 +728,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,133 +748,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
+++ b/res/page/车场运营/增值服务/活动优惠/ActivityVoucherPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认') or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>保存-提示</t>
@@ -242,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -264,12 +264,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -278,59 +325,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,64 +363,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,43 +422,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,139 +590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +631,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -642,6 +681,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,67 +723,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,133 +748,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
